--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelorosales/Documents/GitHub/Quarto/quarto-trials/quarto_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47F79BE-CE9A-964D-A857-39FAC1A02F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F5DC28-529B-074D-87AD-32EE7EB3332A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,7 +508,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
